--- a/data/class_roll1123.xlsx
+++ b/data/class_roll1123.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="20640" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="출석" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -970,20 +975,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -999,7 +1004,7 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1007,13 +1012,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1022,7 +1027,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -1052,16 +1057,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1106,29 +1111,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
-    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1470,37 +1475,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AT1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CG16" sqref="CG16:CM16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="5.6640625" style="1" customWidth="1"/>
-    <col min="11" max="65" width="5.5546875" style="1" customWidth="1"/>
+    <col min="11" max="65" width="5.5" style="1" customWidth="1"/>
     <col min="66" max="66" width="13.33203125" style="1" customWidth="1"/>
-    <col min="67" max="67" width="15.77734375" style="1" customWidth="1"/>
-    <col min="68" max="68" width="15.88671875" style="1" customWidth="1"/>
+    <col min="67" max="68" width="15.83203125" style="1" customWidth="1"/>
     <col min="69" max="69" width="12" style="1" customWidth="1"/>
     <col min="70" max="70" width="11.6640625" style="1" customWidth="1"/>
     <col min="71" max="71" width="15.6640625" style="1" customWidth="1"/>
-    <col min="72" max="73" width="16.109375" style="1" customWidth="1"/>
-    <col min="74" max="85" width="5.5546875" style="1" customWidth="1"/>
+    <col min="72" max="73" width="16.1640625" style="1" customWidth="1"/>
+    <col min="74" max="85" width="5.5" style="1" customWidth="1"/>
     <col min="86" max="90" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="8.88671875" style="1"/>
+    <col min="91" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:90">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1519,7 +1523,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:90" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:90" ht="17.25" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -1791,7 +1795,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:90" ht="28">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2072,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:90" ht="28">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:90" ht="28">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:90" ht="28">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:90" ht="28">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -3196,7 +3200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:90" ht="28">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -3477,7 +3481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:90" ht="28">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:90" ht="28">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4039,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:90" ht="28">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4320,7 +4324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:90" ht="28">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4601,7 +4605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:90" ht="28">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4882,7 +4886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:90" ht="28">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:90" ht="28">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -5444,7 +5448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:90" ht="28">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -5477,7 +5481,7 @@
       <c r="BT16" s="8"/>
       <c r="BU16" s="8"/>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:90" ht="28">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:90" ht="28">
       <c r="A18" s="6">
         <v>16</v>
       </c>
@@ -6039,7 +6043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:90" ht="28">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -6072,7 +6076,7 @@
       <c r="BT19" s="8"/>
       <c r="BU19" s="8"/>
     </row>
-    <row r="20" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:90" ht="28">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -6329,7 +6333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:90" ht="28">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:90" ht="28">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -6643,7 +6647,7 @@
       <c r="BT22" s="8"/>
       <c r="BU22" s="8"/>
     </row>
-    <row r="23" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:90" ht="28">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -6924,7 +6928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:90" ht="28">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -7205,7 +7209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:90" ht="28">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -7486,7 +7490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:90" ht="28">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:90" ht="28">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -8048,7 +8052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:90" ht="28">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -8329,7 +8333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:90" ht="28">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:90" ht="28">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -8891,7 +8895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:90" ht="28">
       <c r="A31" s="6">
         <v>29</v>
       </c>
@@ -9172,7 +9176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:90" ht="28">
       <c r="A32" s="6">
         <v>30</v>
       </c>
@@ -9453,7 +9457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:90" ht="28">
       <c r="A33" s="6">
         <v>31</v>
       </c>
@@ -9734,7 +9738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:90" ht="28">
       <c r="A34" s="6">
         <v>32</v>
       </c>
@@ -10015,7 +10019,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:90" ht="28">
       <c r="A35" s="6">
         <v>33</v>
       </c>
@@ -10296,7 +10300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:90" ht="28">
       <c r="A36" s="6">
         <v>34</v>
       </c>
@@ -10577,7 +10581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:90" ht="28">
       <c r="A37" s="6">
         <v>35</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:90" ht="28">
       <c r="A38" s="6">
         <v>36</v>
       </c>
@@ -10891,7 +10895,7 @@
       <c r="BT38" s="8"/>
       <c r="BU38" s="8"/>
     </row>
-    <row r="39" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:90" ht="28">
       <c r="A39" s="6">
         <v>37</v>
       </c>
@@ -11172,7 +11176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:90" ht="28">
       <c r="A40" s="6">
         <v>38</v>
       </c>
@@ -11453,7 +11457,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:90" ht="28">
       <c r="A41" s="6">
         <v>39</v>
       </c>
@@ -11734,7 +11738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:90" ht="28">
       <c r="A42" s="6">
         <v>40</v>
       </c>
@@ -12015,7 +12019,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:90" ht="28">
       <c r="A43" s="6">
         <v>41</v>
       </c>
@@ -12296,7 +12300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:90" ht="28">
       <c r="A44" s="6">
         <v>42</v>
       </c>
@@ -12577,7 +12581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:90" ht="28">
       <c r="A45" s="6">
         <v>43</v>
       </c>
@@ -12858,7 +12862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:90" ht="28">
       <c r="A46" s="6">
         <v>44</v>
       </c>
@@ -13139,7 +13143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:90" ht="28">
       <c r="A47" s="6">
         <v>45</v>
       </c>
@@ -13420,7 +13424,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:90" ht="28">
       <c r="A48" s="6">
         <v>46</v>
       </c>
@@ -13701,7 +13705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:90" ht="28">
       <c r="A49" s="6">
         <v>47</v>
       </c>
@@ -13982,7 +13986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:90" ht="28">
       <c r="A50" s="6">
         <v>48</v>
       </c>
@@ -14263,7 +14267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:90" ht="28">
       <c r="A51" s="6">
         <v>49</v>
       </c>
@@ -14544,7 +14548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:90" ht="28">
       <c r="A52" s="6">
         <v>50</v>
       </c>
@@ -14577,7 +14581,7 @@
       <c r="BT52" s="8"/>
       <c r="BU52" s="8"/>
     </row>
-    <row r="53" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:90" ht="28">
       <c r="A53" s="6">
         <v>51</v>
       </c>
@@ -14858,7 +14862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:90" ht="28">
       <c r="A54" s="6">
         <v>52</v>
       </c>
@@ -15139,7 +15143,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:90" ht="28">
       <c r="A55" s="6">
         <v>53</v>
       </c>
@@ -15420,7 +15424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:90" ht="28">
       <c r="A56" s="6">
         <v>54</v>
       </c>
@@ -15701,7 +15705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:90" ht="28">
       <c r="A57" s="6">
         <v>55</v>
       </c>
@@ -15982,7 +15986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:90" ht="28">
       <c r="A58" s="6">
         <v>56</v>
       </c>
@@ -16263,7 +16267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:90" ht="28">
       <c r="A59" s="6">
         <v>57</v>
       </c>
@@ -16544,7 +16548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:90" ht="28">
       <c r="A60" s="6">
         <v>58</v>
       </c>
@@ -16825,7 +16829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:90" ht="28">
       <c r="A61" s="6">
         <v>59</v>
       </c>
@@ -17106,7 +17110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:90" ht="28">
       <c r="A62" s="6">
         <v>60</v>
       </c>
@@ -17387,7 +17391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:90" ht="28">
       <c r="A63" s="6">
         <v>61</v>
       </c>
@@ -17668,7 +17672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:90" ht="28">
       <c r="A64" s="6">
         <v>62</v>
       </c>
@@ -17949,7 +17953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:90" ht="28">
       <c r="A65" s="6">
         <v>63</v>
       </c>
@@ -18230,7 +18234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:90" ht="28">
       <c r="A66" s="6">
         <v>64</v>
       </c>
@@ -18511,7 +18515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:90" ht="28">
       <c r="A67" s="6">
         <v>65</v>
       </c>
@@ -18792,7 +18796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:90" ht="28">
       <c r="A68" s="6">
         <v>66</v>
       </c>
@@ -19073,7 +19077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:90" ht="28">
       <c r="A69" s="6">
         <v>67</v>
       </c>
@@ -19354,7 +19358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:90" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:90" ht="28">
       <c r="A70" s="6">
         <v>68</v>
       </c>
@@ -19641,6 +19645,11 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>